--- a/会議室_設計案.xlsx
+++ b/会議室_設計案.xlsx
@@ -13,6 +13,7 @@
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="82">
   <si>
     <t>掲示板データの格納案</t>
     <rPh sb="0" eb="3">
@@ -43,10 +44,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>フォルダ</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>ルール</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -106,10 +103,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>MeetingRooms</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>read</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -147,10 +140,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>"SkyWayKey"</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>key</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -188,14 +177,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>roomname</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>roomsort</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>表示順序</t>
     <rPh sb="0" eb="2">
       <t>ヒョウジ</t>
@@ -206,10 +187,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>roomkey</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>表示名</t>
     <rPh sb="0" eb="2">
       <t>ヒョウジ</t>
@@ -247,10 +224,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>expirationdate</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>list</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -335,16 +308,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>※初期値として、lobby,room01,room02,room03 を用意</t>
-    <rPh sb="1" eb="4">
-      <t>ショキチ</t>
-    </rPh>
-    <rPh sb="36" eb="38">
-      <t>ヨウイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>期限が過ぎていると非表示、また削除権限があれば削除。Nullを許可</t>
     <rPh sb="0" eb="2">
       <t>キゲン</t>
@@ -383,10 +346,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>MeetingRooms/(RoomID)/member</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>管理者</t>
     <rPh sb="0" eb="3">
       <t>カンリシャ</t>
@@ -432,25 +391,260 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>数時間ごとに更新をかける。1日以上更新ないものは無効判定</t>
-    <rPh sb="0" eb="3">
-      <t>スウジカン</t>
+    <t>※初期値として、room01,room02,room03 を用意</t>
+    <rPh sb="1" eb="4">
+      <t>ショキチ</t>
+    </rPh>
+    <rPh sb="30" eb="32">
+      <t>ヨウイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1時間ごとに更新をかける。数時間以上更新ないものは無効判定</t>
+    <rPh sb="1" eb="3">
+      <t>ジカン</t>
     </rPh>
     <rPh sb="6" eb="8">
       <t>コウシン</t>
     </rPh>
-    <rPh sb="14" eb="17">
-      <t>ニチイジョウ</t>
-    </rPh>
-    <rPh sb="17" eb="19">
+    <rPh sb="13" eb="16">
+      <t>スウジカン</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>イジョウ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
       <t>コウシン</t>
     </rPh>
-    <rPh sb="24" eb="26">
+    <rPh sb="25" eb="27">
       <t>ムコウ</t>
     </rPh>
-    <rPh sb="26" eb="28">
+    <rPh sb="27" eb="29">
       <t>ハンテイ</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>roomid</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>現在入室中の部屋</t>
+    <rPh sb="0" eb="2">
+      <t>ゲンザイ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ニュウシツ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>チュウ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ヘヤ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>空白はロビーとする</t>
+    <rPh sb="0" eb="2">
+      <t>クウハク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>number</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>初期値０は控室扱い。1で入室</t>
+    <rPh sb="0" eb="3">
+      <t>ショキチ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ヒカエシツ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>アツカ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ニュウシツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>会議室と控室は別の部屋扱いとするが、ｃｈａｔは共有する</t>
+    <rPh sb="0" eb="3">
+      <t>カイギシツ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ヒカエシツ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>ベツ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ヘヤ</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>アツカ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>キョウユウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>lobby</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Hello!○○</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ロビー</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>第1会議室</t>
+    <rPh sb="0" eb="1">
+      <t>ダイ</t>
+    </rPh>
+    <rPh sb="2" eb="5">
+      <t>カイギシツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>予約不可</t>
+    <rPh sb="0" eb="2">
+      <t>ヨヤク</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>フカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>第2会議室</t>
+    <rPh sb="0" eb="1">
+      <t>ダイ</t>
+    </rPh>
+    <rPh sb="2" eb="5">
+      <t>カイギシツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>第3会議室</t>
+    <rPh sb="0" eb="1">
+      <t>ダイ</t>
+    </rPh>
+    <rPh sb="2" eb="5">
+      <t>カイギシツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ラプラスの間</t>
+    <rPh sb="5" eb="6">
+      <t>マ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>予約者：高山</t>
+    <rPh sb="0" eb="3">
+      <t>ヨヤクシャ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>タカヤマ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>グループミーティング　2/5 18:00～</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>入室者：</t>
+    <rPh sb="0" eb="2">
+      <t>ニュウシツ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>シャ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>予約者：　　-</t>
+    <rPh sb="0" eb="3">
+      <t>ヨヤクシャ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>lobbyChat</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>控室</t>
+    <rPh sb="0" eb="2">
+      <t>ヒカエシツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>roomChat</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>"SkyWayKey"</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>コレクション</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>MeetingRooms/locale01/MeetingRoomList</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>MeetingRooms/locale01/MeetingMembers</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>MeetingRooms/locale01/MeetingRoomList</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>modified_sys</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>memberkey</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>enterflg</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>membername</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>roomname</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>roomsort</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>expirationdate</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -458,7 +652,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -471,6 +665,24 @@
       <sz val="6"/>
       <name val="ＭＳ Ｐゴシック"/>
       <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <strike/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <strike/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
@@ -497,8 +709,14 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -516,6 +734,932 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>657224</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>142874</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>342899</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>19049</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="正方形/長方形 1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2028824" y="485774"/>
+          <a:ext cx="5857875" cy="3819525"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>470400</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>37125</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="額縁 2"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2819400" y="1228725"/>
+          <a:ext cx="1080000" cy="180000"/>
+        </a:xfrm>
+        <a:prstGeom prst="bevel">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="overflow" horzOverflow="overflow" wrap="none" rtlCol="0" anchor="ctr" anchorCtr="0"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>控えブースへ</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>123825</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>518025</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>37125</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="額縁 3"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2867025" y="2771775"/>
+          <a:ext cx="1080000" cy="180000"/>
+        </a:xfrm>
+        <a:prstGeom prst="bevel">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="overflow" horzOverflow="overflow" wrap="none" rtlCol="0" anchor="ctr" anchorCtr="0"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>控えブースへ</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>422775</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>18075</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="額縁 4"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2771775" y="523875"/>
+          <a:ext cx="1080000" cy="180000"/>
+        </a:xfrm>
+        <a:prstGeom prst="bevel">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="overflow" horzOverflow="overflow" wrap="none" rtlCol="0" anchor="ctr" anchorCtr="0"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>my account</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>470400</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>94275</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="額縁 5"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2819400" y="3343275"/>
+          <a:ext cx="1080000" cy="180000"/>
+        </a:xfrm>
+        <a:prstGeom prst="bevel">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="overflow" horzOverflow="overflow" wrap="none" rtlCol="0" anchor="ctr" anchorCtr="0"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>会議室作成</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>28574</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>57149</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>552449</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>142874</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="正方形/長方形 6"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4829174" y="3143249"/>
+          <a:ext cx="2581275" cy="600075"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:sysClr val="window" lastClr="FFFFFF"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>66675</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>647700</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>38101</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="8" name="正方形/長方形 7"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3495675" y="3905250"/>
+          <a:ext cx="4010025" cy="247651"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:sysClr val="window" lastClr="FFFFFF"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>657225</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="9" name="正方形/長方形 8"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2028825" y="4781550"/>
+          <a:ext cx="5857875" cy="3819525"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>47624</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>571499</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="10" name="正方形/長方形 9"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3476624" y="6391275"/>
+          <a:ext cx="2581275" cy="600075"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:sysClr val="window" lastClr="FFFFFF"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>123826</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>600075</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>28577</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="11" name="正方形/長方形 10"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3448050" y="7839076"/>
+          <a:ext cx="4010025" cy="247651"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:sysClr val="window" lastClr="FFFFFF"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>561975</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="12" name="正方形/長方形 11"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3467100" y="7200900"/>
+          <a:ext cx="2581275" cy="600075"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:sysClr val="window" lastClr="FFFFFF"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>542925</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>251325</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>132375</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="13" name="額縁 12"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6715125" y="4238625"/>
+          <a:ext cx="1080000" cy="180000"/>
+        </a:xfrm>
+        <a:prstGeom prst="bevel">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="overflow" horzOverflow="overflow" wrap="none" rtlCol="0" anchor="ctr" anchorCtr="0"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Config</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>（音量等）</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>200025</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>594225</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>94275</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="14" name="額縁 13"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6372225" y="8486775"/>
+          <a:ext cx="1080000" cy="180000"/>
+        </a:xfrm>
+        <a:prstGeom prst="bevel">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="overflow" horzOverflow="overflow" wrap="none" rtlCol="0" anchor="ctr" anchorCtr="0"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Config</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>（音量等）</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>161925</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>556125</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>84750</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="15" name="額縁 14"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6334125" y="5562600"/>
+          <a:ext cx="1080000" cy="180000"/>
+        </a:xfrm>
+        <a:prstGeom prst="bevel">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="overflow" horzOverflow="overflow" wrap="none" rtlCol="0" anchor="ctr" anchorCtr="0"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>資料画面</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>619125</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>76201</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="16" name="正方形/長方形 15"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3467100" y="7200900"/>
+          <a:ext cx="4010025" cy="247651"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:sysClr val="window" lastClr="FFFFFF"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -781,10 +1925,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B8:M52"/>
+  <dimension ref="B8:P55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A26" workbookViewId="0">
-      <selection activeCell="I46" sqref="I46"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="E35" sqref="E35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -799,87 +1943,87 @@
         <v>1</v>
       </c>
       <c r="D10" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="11" spans="2:9" x14ac:dyDescent="0.15">
       <c r="C11" t="s">
-        <v>2</v>
+        <v>71</v>
       </c>
       <c r="D11" t="s">
-        <v>15</v>
+        <v>72</v>
       </c>
     </row>
     <row r="12" spans="2:9" x14ac:dyDescent="0.15">
       <c r="C12" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D12" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E12" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="13" spans="2:9" x14ac:dyDescent="0.15">
       <c r="D13" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E13" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="F13" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="G13" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="H13" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="I13" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="14" spans="2:9" x14ac:dyDescent="0.15">
       <c r="C14" t="s">
+        <v>4</v>
+      </c>
+      <c r="D14" t="s">
         <v>5</v>
       </c>
-      <c r="D14" t="s">
-        <v>6</v>
-      </c>
       <c r="E14" t="s">
-        <v>23</v>
+        <v>70</v>
       </c>
     </row>
     <row r="15" spans="2:9" x14ac:dyDescent="0.15">
       <c r="D15" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="16" spans="2:9" x14ac:dyDescent="0.15">
       <c r="E16" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="G16" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I16" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="17" spans="3:13" x14ac:dyDescent="0.15">
       <c r="E17" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="G17" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="I17" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="M17" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
     </row>
     <row r="23" spans="3:13" x14ac:dyDescent="0.15">
@@ -887,275 +2031,316 @@
         <v>1</v>
       </c>
       <c r="D23" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="24" spans="3:13" x14ac:dyDescent="0.15">
       <c r="C24" t="s">
-        <v>2</v>
+        <v>71</v>
       </c>
       <c r="D24" t="s">
-        <v>15</v>
+        <v>74</v>
       </c>
     </row>
     <row r="25" spans="3:13" x14ac:dyDescent="0.15">
       <c r="C25" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D25" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E25" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="26" spans="3:13" x14ac:dyDescent="0.15">
       <c r="D26" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E26" t="s">
+        <v>15</v>
+      </c>
+      <c r="F26" t="s">
+        <v>16</v>
+      </c>
+      <c r="G26" t="s">
+        <v>15</v>
+      </c>
+      <c r="H26" t="s">
         <v>17</v>
       </c>
-      <c r="F26" t="s">
-        <v>18</v>
-      </c>
-      <c r="G26" t="s">
-        <v>17</v>
-      </c>
-      <c r="H26" t="s">
-        <v>19</v>
-      </c>
       <c r="I26" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
     </row>
     <row r="27" spans="3:13" x14ac:dyDescent="0.15">
       <c r="C27" t="s">
+        <v>4</v>
+      </c>
+      <c r="D27" t="s">
         <v>5</v>
       </c>
-      <c r="D27" t="s">
-        <v>6</v>
-      </c>
       <c r="E27" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="L27" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="28" spans="3:13" x14ac:dyDescent="0.15">
       <c r="D28" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="29" spans="3:13" x14ac:dyDescent="0.15">
       <c r="E29" t="s">
+        <v>7</v>
+      </c>
+      <c r="G29" t="s">
         <v>8</v>
       </c>
-      <c r="G29" t="s">
+      <c r="I29" t="s">
         <v>9</v>
-      </c>
-      <c r="I29" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="30" spans="3:13" x14ac:dyDescent="0.15">
       <c r="E30" t="s">
+        <v>10</v>
+      </c>
+      <c r="G30" t="s">
         <v>11</v>
       </c>
-      <c r="G30" t="s">
+      <c r="I30" t="s">
         <v>12</v>
-      </c>
-      <c r="I30" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="31" spans="3:13" x14ac:dyDescent="0.15">
       <c r="E31" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="G31" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="I31" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
     </row>
     <row r="32" spans="3:13" x14ac:dyDescent="0.15">
       <c r="E32" t="s">
+        <v>25</v>
+      </c>
+      <c r="G32" t="s">
+        <v>26</v>
+      </c>
+      <c r="I32" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="33" spans="3:12" x14ac:dyDescent="0.15">
+      <c r="E33" t="s">
+        <v>79</v>
+      </c>
+      <c r="G33" t="s">
+        <v>26</v>
+      </c>
+      <c r="I33" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="34" spans="3:12" x14ac:dyDescent="0.15">
+      <c r="E34" t="s">
+        <v>80</v>
+      </c>
+      <c r="G34" t="s">
+        <v>26</v>
+      </c>
+      <c r="I34" t="s">
         <v>28</v>
       </c>
-      <c r="G32" t="s">
-        <v>29</v>
-      </c>
-      <c r="I32" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="33" spans="3:11" x14ac:dyDescent="0.15">
-      <c r="E33" t="s">
+      <c r="K34" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="35" spans="3:12" x14ac:dyDescent="0.15">
+      <c r="E35" t="s">
+        <v>81</v>
+      </c>
+      <c r="G35" t="s">
+        <v>11</v>
+      </c>
+      <c r="I35" t="s">
         <v>31</v>
       </c>
-      <c r="G33" t="s">
-        <v>29</v>
-      </c>
-      <c r="I33" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="34" spans="3:11" x14ac:dyDescent="0.15">
-      <c r="E34" t="s">
-        <v>32</v>
-      </c>
-      <c r="G34" t="s">
-        <v>29</v>
-      </c>
-      <c r="I34" t="s">
-        <v>33</v>
-      </c>
-      <c r="K34" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="35" spans="3:11" x14ac:dyDescent="0.15">
-      <c r="E35" t="s">
+      <c r="K35" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="36" spans="3:12" x14ac:dyDescent="0.15">
+      <c r="E36" t="s">
         <v>39</v>
       </c>
-      <c r="G35" t="s">
-        <v>12</v>
-      </c>
-      <c r="I35" t="s">
-        <v>37</v>
-      </c>
-      <c r="K35" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="36" spans="3:11" x14ac:dyDescent="0.15">
-      <c r="E36" t="s">
-        <v>46</v>
-      </c>
       <c r="G36" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="I36" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="43" spans="3:11" x14ac:dyDescent="0.15">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="43" spans="3:12" x14ac:dyDescent="0.15">
       <c r="C43" t="s">
         <v>1</v>
       </c>
       <c r="D43" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="44" spans="3:12" x14ac:dyDescent="0.15">
+      <c r="C44" t="s">
+        <v>71</v>
+      </c>
+      <c r="D44" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="45" spans="3:12" x14ac:dyDescent="0.15">
+      <c r="C45" t="s">
+        <v>2</v>
+      </c>
+      <c r="D45" t="s">
+        <v>14</v>
+      </c>
+      <c r="E45" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="46" spans="3:12" x14ac:dyDescent="0.15">
+      <c r="D46" t="s">
+        <v>3</v>
+      </c>
+      <c r="E46" t="s">
+        <v>15</v>
+      </c>
+      <c r="F46" t="s">
+        <v>16</v>
+      </c>
+      <c r="G46" t="s">
+        <v>44</v>
+      </c>
+      <c r="H46" t="s">
+        <v>17</v>
+      </c>
+      <c r="I46" t="s">
+        <v>32</v>
+      </c>
+      <c r="L46" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="47" spans="3:12" x14ac:dyDescent="0.15">
+      <c r="C47" t="s">
+        <v>4</v>
+      </c>
+      <c r="D47" t="s">
+        <v>5</v>
+      </c>
+      <c r="E47" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="48" spans="3:12" x14ac:dyDescent="0.15">
+      <c r="D48" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="49" spans="5:16" x14ac:dyDescent="0.15">
+      <c r="E49" t="s">
+        <v>7</v>
+      </c>
+      <c r="G49" t="s">
+        <v>8</v>
+      </c>
+      <c r="I49" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="50" spans="5:16" x14ac:dyDescent="0.15">
+      <c r="E50" t="s">
+        <v>75</v>
+      </c>
+      <c r="G50" t="s">
+        <v>8</v>
+      </c>
+      <c r="I50" t="s">
+        <v>12</v>
+      </c>
+      <c r="L50" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="51" spans="5:16" x14ac:dyDescent="0.15">
+      <c r="E51" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F51" s="2"/>
+      <c r="G51" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H51" s="2"/>
+      <c r="I51" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="J51" s="2"/>
+      <c r="K51" s="2"/>
+      <c r="L51" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="M51" s="2"/>
+    </row>
+    <row r="52" spans="5:16" x14ac:dyDescent="0.15">
+      <c r="E52" t="s">
+        <v>76</v>
+      </c>
+      <c r="G52" t="s">
+        <v>13</v>
+      </c>
+      <c r="I52" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="53" spans="5:16" x14ac:dyDescent="0.15">
+      <c r="E53" t="s">
+        <v>49</v>
+      </c>
+      <c r="G53" t="s">
+        <v>13</v>
+      </c>
+      <c r="I53" t="s">
+        <v>50</v>
+      </c>
+      <c r="L53" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="44" spans="3:11" x14ac:dyDescent="0.15">
-      <c r="C44" t="s">
-        <v>2</v>
-      </c>
-      <c r="D44" t="s">
+    <row r="54" spans="5:16" x14ac:dyDescent="0.15">
+      <c r="E54" t="s">
+        <v>77</v>
+      </c>
+      <c r="G54" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="45" spans="3:11" x14ac:dyDescent="0.15">
-      <c r="C45" t="s">
-        <v>3</v>
-      </c>
-      <c r="D45" t="s">
-        <v>16</v>
-      </c>
-      <c r="E45" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="46" spans="3:11" x14ac:dyDescent="0.15">
-      <c r="D46" t="s">
-        <v>4</v>
-      </c>
-      <c r="E46" t="s">
-        <v>17</v>
-      </c>
-      <c r="F46" t="s">
-        <v>18</v>
-      </c>
-      <c r="G46" t="s">
+      <c r="L54" t="s">
         <v>53</v>
       </c>
-      <c r="H46" t="s">
-        <v>19</v>
-      </c>
-      <c r="I46" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="47" spans="3:11" x14ac:dyDescent="0.15">
-      <c r="C47" t="s">
-        <v>5</v>
-      </c>
-      <c r="D47" t="s">
-        <v>6</v>
-      </c>
-      <c r="E47" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="48" spans="3:11" x14ac:dyDescent="0.15">
-      <c r="D48" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="49" spans="5:12" x14ac:dyDescent="0.15">
-      <c r="E49" t="s">
-        <v>8</v>
-      </c>
-      <c r="G49" t="s">
-        <v>9</v>
-      </c>
-      <c r="I49" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="50" spans="5:12" x14ac:dyDescent="0.15">
-      <c r="E50" t="s">
-        <v>11</v>
-      </c>
-      <c r="G50" t="s">
-        <v>9</v>
-      </c>
-      <c r="I50" t="s">
+      <c r="P54" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="55" spans="5:16" x14ac:dyDescent="0.15">
+      <c r="E55" t="s">
+        <v>78</v>
+      </c>
+      <c r="G55" t="s">
         <v>13</v>
-      </c>
-      <c r="L50" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="51" spans="5:12" x14ac:dyDescent="0.15">
-      <c r="E51" t="s">
-        <v>26</v>
-      </c>
-      <c r="G51" t="s">
-        <v>14</v>
-      </c>
-      <c r="I51" t="s">
-        <v>42</v>
-      </c>
-      <c r="L51" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="52" spans="5:12" x14ac:dyDescent="0.15">
-      <c r="E52" t="s">
-        <v>34</v>
-      </c>
-      <c r="G52" t="s">
-        <v>14</v>
-      </c>
-      <c r="I52" t="s">
-        <v>36</v>
-      </c>
-      <c r="L52" t="s">
-        <v>55</v>
       </c>
     </row>
   </sheetData>
@@ -1163,4 +2348,149 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:G45"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetData>
+    <row r="2" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="4" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="D4" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="6" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="D6" t="s">
+        <v>57</v>
+      </c>
+      <c r="G6" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="8" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="E8" t="s">
+        <v>58</v>
+      </c>
+      <c r="G8" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="9" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="G9" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="10" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="G10" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="11" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="E11" t="s">
+        <v>60</v>
+      </c>
+      <c r="G11" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="12" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="G12" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="13" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="G13" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="14" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="E14" t="s">
+        <v>61</v>
+      </c>
+      <c r="G14" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="15" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="G15" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="16" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="G16" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="17" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="E17" t="s">
+        <v>62</v>
+      </c>
+      <c r="G17" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="18" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="G18" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="19" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="G19" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="25" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="E25" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="29" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B29" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="31" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="D31" t="s">
+        <v>62</v>
+      </c>
+      <c r="F31" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="32" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="F32" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="33" spans="5:6" x14ac:dyDescent="0.15">
+      <c r="F33" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="39" spans="5:6" x14ac:dyDescent="0.15">
+      <c r="E39" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="45" spans="5:6" x14ac:dyDescent="0.15">
+      <c r="E45" t="s">
+        <v>69</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/会議室_設計案.xlsx
+++ b/会議室_設計案.xlsx
@@ -9,11 +9,12 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21000" windowHeight="8865"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21000" windowHeight="8865" activeTab="2"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="DB" sheetId="1" r:id="rId1"/>
+    <sheet name="Img" sheetId="2" r:id="rId2"/>
+    <sheet name="概略" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="99">
   <si>
     <t>掲示板データの格納案</t>
     <rPh sb="0" eb="3">
@@ -645,6 +646,164 @@
   </si>
   <si>
     <t>expirationdate</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>index.html</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>meetingroom_lobby.html</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>会議室一覧を表示する</t>
+    <rPh sb="0" eb="3">
+      <t>カイギシツ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>イチラン</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>chat.html</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>meetingroom_lobby.htmlの処理により、別ウインドウで開かれる。</t>
+    <rPh sb="23" eb="25">
+      <t>ショリ</t>
+    </rPh>
+    <rPh sb="29" eb="30">
+      <t>ベツ</t>
+    </rPh>
+    <rPh sb="36" eb="37">
+      <t>ヒラ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>home.htmlの処理から、メインフレームで呼び出される</t>
+    <rPh sb="10" eb="12">
+      <t>ショリ</t>
+    </rPh>
+    <rPh sb="23" eb="24">
+      <t>ヨ</t>
+    </rPh>
+    <rPh sb="25" eb="26">
+      <t>ダ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>chat.html　とは、Window.postMessage()でデータ通信する。</t>
+    <rPh sb="37" eb="39">
+      <t>ツウシン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>カメラと音声のTV会議（SkyWay)の処理を担当。</t>
+    <rPh sb="4" eb="6">
+      <t>オンセイ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>カイギ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>ショリ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>タントウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>firebaseとのデータ処理はこちらで担当。</t>
+    <rPh sb="13" eb="15">
+      <t>ショリ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>タントウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>SkyWayでの通信はこちらで担当。</t>
+    <rPh sb="8" eb="10">
+      <t>ツウシン</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>タントウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>chat_imageboard.html</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>画像共有用のキャンバスを表示する。</t>
+    <rPh sb="0" eb="2">
+      <t>ガゾウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>キョウユウ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ヨウ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>またマウスイベントのトレースを実施する。</t>
+    <rPh sb="15" eb="17">
+      <t>ジッシ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>meetingroom_lobby.html　とは、Window.postMessage()でデータ通信する。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>SkyWayでの通信は、chat.htmlの関数を直接コール？？　Window.postMessage()を使用？</t>
+    <rPh sb="8" eb="10">
+      <t>ツウシン</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>カンスウ</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>チョクセツ</t>
+    </rPh>
+    <rPh sb="54" eb="56">
+      <t>シヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>chat_imageclip.html</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>画像取得用のウインドウ。</t>
+    <rPh sb="0" eb="2">
+      <t>ガゾウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>シュトク</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ヨウ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1654,6 +1813,276 @@
         <a:p>
           <a:pPr algn="l"/>
           <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="正方形/長方形 1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="723900" y="552450"/>
+          <a:ext cx="7734300" cy="4914900"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>161925</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="正方形/長方形 2"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="762000" y="600075"/>
+          <a:ext cx="7629525" cy="352425"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>アカウント用フレーム</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>123825</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>209550</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="正方形/長方形 3"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="809625" y="5086350"/>
+          <a:ext cx="7629525" cy="352425"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>情報フレーム</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>85725</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="正方形/長方形 4"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="771525" y="981075"/>
+          <a:ext cx="7629525" cy="4067175"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>メインフレーム　　（</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>id="iframe_main"</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>）</a:t>
+          </a:r>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -1927,7 +2356,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B8:P55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E35" sqref="E35"/>
     </sheetView>
   </sheetViews>
@@ -2493,4 +2922,104 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B3:E58"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="C59" sqref="C59"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetData>
+    <row r="3" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B3" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="35" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B35" t="s">
+        <v>83</v>
+      </c>
+      <c r="E35" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="37" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="C37" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="39" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="D39" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="40" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="D40" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="42" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B42" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="43" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="C43" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="44" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="C44" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="46" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="D46" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="47" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="D47" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="50" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B50" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="51" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="C51" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="52" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="C52" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="54" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="D54" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="57" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B57" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="58" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="C58" t="s">
+        <v>98</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>